--- a/PythonResources/Data/Consumption/Sympheny/base_CE_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CE_coo.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6.129028041623122</v>
+        <v>6.129028041623121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5.463431475008954</v>
+        <v>5.463431475008953</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>181.9477618457849</v>
+        <v>181.9477618457848</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>5.048335913335378</v>
+        <v>5.048335913335377</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>4.646312785341291</v>
+        <v>4.64631278534129</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>161.5322340043293</v>
+        <v>161.5322340043292</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>177.9917717375186</v>
+        <v>177.9917717375185</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>81.3935352045724</v>
+        <v>81.39353520457237</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>8.753829705797708</v>
+        <v>8.753829705797706</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>6.471223647784882</v>
+        <v>6.471223647784881</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>4.284062621074973</v>
+        <v>4.284062621074972</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>4.431840175467493</v>
+        <v>4.431840175467492</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>7.770928935548404</v>
+        <v>7.770928935548403</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>6.00877483996856</v>
+        <v>6.008774839968559</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>5.271628789188728</v>
+        <v>5.271628789188727</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>7.417931903185741</v>
+        <v>7.41793190318574</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>89.74134136269828</v>
+        <v>89.74134136269826</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>5.121640893022624</v>
+        <v>5.121640893022622</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>3.870854729961415</v>
+        <v>3.870854729961414</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>5.766289034864317</v>
+        <v>5.766289034864316</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>2.828209376983725</v>
+        <v>2.828209376983724</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>37.96163817332339</v>
+        <v>37.96163817332338</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>151.5814552852725</v>
+        <v>151.5814552852724</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>9.004047897185991</v>
+        <v>9.004047897185989</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>229.4256217941692</v>
+        <v>229.4256217941691</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>380.4944225650633</v>
+        <v>380.4944225650632</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>427.9661573287396</v>
+        <v>427.9661573287395</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>27.64588929769043</v>
+        <v>27.64588929769042</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>188.4886092079404</v>
+        <v>188.4886092079403</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>7.890949438798269</v>
+        <v>7.890949438798268</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>80.62797503738122</v>
+        <v>80.62797503738119</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>115.3067340104838</v>
+        <v>115.3067340104837</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>87.75400027314221</v>
+        <v>87.7540002731422</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>3.030986107846626</v>
+        <v>3.030986107846625</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>39.12554928839421</v>
+        <v>39.1255492883942</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>410</v>
       </c>
       <c r="B410">
-        <v>2.652354444803294</v>
+        <v>2.652354444803293</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>55.28902372761744</v>
+        <v>55.28902372761743</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>57.48964726555929</v>
+        <v>57.48964726555928</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>6.333785932707373</v>
+        <v>6.333785932707372</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>0.7646680589494809</v>
+        <v>0.7646680589494808</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>4.022817631857057</v>
+        <v>4.022817631857056</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>8.587109211750274</v>
+        <v>8.587109211750272</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>3.577869268043359</v>
+        <v>3.577869268043358</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>76.94322217539599</v>
+        <v>76.94322217539597</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>3.981069662399748</v>
+        <v>3.981069662399747</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>2.058145294070411</v>
+        <v>2.05814529407041</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>2.084979874811776</v>
+        <v>2.084979874811775</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>0.7734237027650078</v>
+        <v>0.7734237027650077</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>0.570872753830292</v>
+        <v>0.5708727538302918</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>7.16418191271055</v>
+        <v>7.164181912710548</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>2.05844774338231</v>
+        <v>2.058447743382309</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>5.033461092768121</v>
+        <v>5.03346109276812</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>8.248341950598775</v>
+        <v>8.248341950598773</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>7.683462763273042</v>
+        <v>7.683462763273041</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>5.785101557907028</v>
+        <v>5.785101557907026</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>8.855717024672479</v>
+        <v>8.855717024672478</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>10.2129542088225</v>
+        <v>10.21295420882249</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>6.448431513108189</v>
+        <v>6.448431513108188</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>4.601227029824668</v>
+        <v>4.601227029824667</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>5.409955388726496</v>
+        <v>5.409955388726495</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>5.609326341049113</v>
+        <v>5.609326341049112</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>68.64330382498736</v>
+        <v>68.64330382498734</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>5.3736646950801</v>
+        <v>5.373664695080099</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>696</v>
       </c>
       <c r="B696">
-        <v>6.241897318458611</v>
+        <v>6.24189731845861</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>2.294059274203712</v>
+        <v>2.294059274203711</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>8.707430405885805</v>
+        <v>8.707430405885802</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>7.598281958957161</v>
+        <v>7.598281958957159</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>2.143894363130257</v>
+        <v>2.143894363130256</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>2.894952203044305</v>
+        <v>2.894952203044304</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>6.377989544397625</v>
+        <v>6.377989544397624</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>8.929681121125675</v>
+        <v>8.929681121125673</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>9.327152855889352</v>
+        <v>9.32715285588935</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>3.872811858357595</v>
+        <v>3.872811858357594</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>3.349353573210025</v>
+        <v>3.349353573210024</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>62.48503139670038</v>
+        <v>62.48503139670037</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>832</v>
       </c>
       <c r="B832">
-        <v>34.99794557201899</v>
+        <v>34.99794557201898</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>1.638617736307575</v>
+        <v>1.638617736307574</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>0.671320624991574</v>
+        <v>0.6713206249915739</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>0.6609033270010451</v>
+        <v>0.6609033270010449</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>4.949019413611744</v>
+        <v>4.949019413611742</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>4.519790501098724</v>
+        <v>4.519790501098723</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>51.24165406949653</v>
+        <v>51.24165406949652</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>89.64500598157991</v>
+        <v>89.6450059815799</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>101.3715402231209</v>
+        <v>101.3715402231208</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>89.52149998446724</v>
+        <v>89.52149998446723</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>50.92929895649127</v>
+        <v>50.92929895649126</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>7.094511013902705</v>
+        <v>7.094511013902704</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>2.609962305203008</v>
+        <v>2.609962305203007</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>1.329243806383205</v>
+        <v>1.329243806383204</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>907</v>
       </c>
       <c r="B907">
-        <v>6.553912469059027</v>
+        <v>6.553912469059025</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>5.442573023045348</v>
+        <v>5.442573023045347</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>6.293146357918283</v>
+        <v>6.293146357918282</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>5.482110943800112</v>
+        <v>5.482110943800111</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>7.146849105342042</v>
+        <v>7.14684910534204</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>4.883336625498001</v>
+        <v>4.883336625498</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>5.903325828760938</v>
+        <v>5.903325828760937</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>52.58309882765724</v>
+        <v>52.58309882765723</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>973</v>
       </c>
       <c r="B973">
-        <v>9.64003842747459</v>
+        <v>9.640038427474588</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>11.77476201166306</v>
+        <v>11.77476201166305</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>985</v>
       </c>
       <c r="B985">
-        <v>9.946379722766521</v>
+        <v>9.946379722766519</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>7.567731061602947</v>
+        <v>7.567731061602946</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>38.65550437232683</v>
+        <v>38.65550437232682</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>4.767781059522142</v>
+        <v>4.767781059522141</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>3.902337007076493</v>
+        <v>3.902337007076492</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>7.394573262191316</v>
+        <v>7.394573262191315</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>34.1757318423442</v>
+        <v>34.17573184234419</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>3.37119293394003</v>
+        <v>3.371192933940029</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>9.161173245427653</v>
+        <v>9.161173245427651</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>3.57268249680113</v>
+        <v>3.572682496801129</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>23.80027853471515</v>
+        <v>23.80027853471514</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>6.828487794470454</v>
+        <v>6.828487794470453</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>5.312167254469481</v>
+        <v>5.312167254469479</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>7.24837360227095</v>
+        <v>7.248373602270949</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>4.204419980176676</v>
+        <v>4.204419980176675</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>28.89778326927778</v>
+        <v>28.89778326927777</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>2.81815938492595</v>
+        <v>2.818159384925949</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>1142</v>
       </c>
       <c r="B1142">
-        <v>5.654909145047305</v>
+        <v>5.654909145047304</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>4.501643835455852</v>
+        <v>4.501643835455851</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>45.15902327628804</v>
+        <v>45.15902327628802</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>104.0424167575676</v>
+        <v>104.0424167575675</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>6.978914124910395</v>
+        <v>6.978914124910394</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>6.500141553311674</v>
+        <v>6.500141553311673</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>6.009161986810632</v>
+        <v>6.009161986810631</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>4.161771989559638</v>
+        <v>4.161771989559637</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>5.135973825239396</v>
+        <v>5.135973825239395</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9847,7 +9847,7 @@
         <v>1188</v>
       </c>
       <c r="B1188">
-        <v>5.179002222064616</v>
+        <v>5.179002222064615</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>5.446700928624893</v>
+        <v>5.446700928624892</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>4.636397899032339</v>
+        <v>4.636397899032338</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>5.68319167256228</v>
+        <v>5.683191672562279</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>6.445011667158051</v>
+        <v>6.44501166715805</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>3.144898131437672</v>
+        <v>3.144898131437671</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>3.459855129124169</v>
+        <v>3.459855129124168</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>57.79785835407789</v>
+        <v>57.79785835407788</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>9.645442657427505</v>
+        <v>9.645442657427504</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>26.34723877259505</v>
+        <v>26.34723877259504</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>51.49493192252843</v>
+        <v>51.49493192252842</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>1247</v>
       </c>
       <c r="B1247">
-        <v>69.92707220273952</v>
+        <v>69.92707220273951</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>9.837608458264635</v>
+        <v>9.837608458264633</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>66.97781041937881</v>
+        <v>66.9778104193788</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>9.483995683649745</v>
+        <v>9.483995683649743</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>8.691130087786501</v>
+        <v>8.691130087786499</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>6.748622126511735</v>
+        <v>6.748622126511734</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>8.778655753482711</v>
+        <v>8.77865575348271</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>8.593045072567321</v>
+        <v>8.593045072567319</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>7.968346569398343</v>
+        <v>7.968346569398342</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>7.304882680732515</v>
+        <v>7.304882680732513</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>17.82926091587045</v>
+        <v>17.82926091587044</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>8.714596285852114</v>
+        <v>8.714596285852112</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>73.26787689375179</v>
+        <v>73.26787689375178</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>18.18310023439822</v>
+        <v>18.18310023439821</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11631,7 +11631,7 @@
         <v>1411</v>
       </c>
       <c r="B1411">
-        <v>90.35599925208273</v>
+        <v>90.35599925208271</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>5.169359012608503</v>
+        <v>5.169359012608502</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>9.025873776648218</v>
+        <v>9.025873776648217</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>9.22085628323792</v>
+        <v>9.220856283237918</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>4.601370048491535</v>
+        <v>4.601370048491534</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>4.670065606882715</v>
+        <v>4.670065606882714</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12191,7 +12191,7 @@
         <v>1481</v>
       </c>
       <c r="B1481">
-        <v>97.79121150292106</v>
+        <v>97.79121150292104</v>
       </c>
     </row>
     <row r="1482" spans="1:2">
@@ -12487,7 +12487,7 @@
         <v>1518</v>
       </c>
       <c r="B1518">
-        <v>4.526701409261397</v>
+        <v>4.526701409261396</v>
       </c>
     </row>
     <row r="1519" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>32.88524920709631</v>
+        <v>32.8852492070963</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>5.80300526765885</v>
+        <v>5.803005267658849</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>168.2782838463347</v>
+        <v>168.2782838463346</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>77.51594159914799</v>
+        <v>77.51594159914798</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>5.715260091754682</v>
+        <v>5.715260091754681</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>422.5538679222612</v>
+        <v>422.5538679222611</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>327.4916167029392</v>
+        <v>327.491616702939</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>85.26896008431069</v>
+        <v>85.26896008431068</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>7.715035599339068</v>
+        <v>7.715035599339067</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>5.862765969294362</v>
+        <v>5.862765969294361</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>78.12804977049608</v>
+        <v>78.12804977049606</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>53.03608407856415</v>
+        <v>53.03608407856414</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>12.27698026635469</v>
+        <v>12.27698026635468</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>3.396115401996752</v>
+        <v>3.396115401996751</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>32.36360620396221</v>
+        <v>32.3636062039622</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>5.061077469812219</v>
+        <v>5.061077469812218</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>4.020560691788325</v>
+        <v>4.020560691788324</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>4.642985842910407</v>
+        <v>4.642985842910406</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>4.156834328700271</v>
+        <v>4.15683432870027</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>85.98531362411062</v>
+        <v>85.9853136241106</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>4.796289837878963</v>
+        <v>4.796289837878962</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>72.42579587836615</v>
+        <v>72.42579587836613</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14111,7 +14111,7 @@
         <v>1721</v>
       </c>
       <c r="B1721">
-        <v>190.2331731797798</v>
+        <v>190.2331731797797</v>
       </c>
     </row>
     <row r="1722" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>128.5486008495544</v>
+        <v>128.5486008495543</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>9.274346436930236</v>
+        <v>9.274346436930234</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>5.7797351341181</v>
+        <v>5.779735134118098</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>4.674375802648308</v>
+        <v>4.674375802648307</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>28.83929508209214</v>
+        <v>28.83929508209213</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>89.11185407875757</v>
+        <v>89.11185407875756</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>5.246813585132155</v>
+        <v>5.246813585132154</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>4.548080355389665</v>
+        <v>4.548080355389664</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>70.71543329673854</v>
+        <v>70.71543329673852</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>20.22081144336901</v>
+        <v>20.220811443369</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>7.645556368990506</v>
+        <v>7.645556368990505</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -14935,7 +14935,7 @@
         <v>1824</v>
       </c>
       <c r="B1824">
-        <v>6.116384957015272</v>
+        <v>6.116384957015271</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>5.521167348838355</v>
+        <v>5.521167348838354</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15015,7 +15015,7 @@
         <v>1834</v>
       </c>
       <c r="B1834">
-        <v>170.9486592293053</v>
+        <v>170.9486592293052</v>
       </c>
     </row>
     <row r="1835" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>198.2091014969483</v>
+        <v>198.2091014969482</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>188.1941900425012</v>
+        <v>188.1941900425011</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>220.4696639237172</v>
+        <v>220.4696639237171</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>4.56280453744305</v>
+        <v>4.562804537443049</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>203.2573087520977</v>
+        <v>203.2573087520976</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>361.1619914997677</v>
+        <v>361.1619914997676</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>10.78883293837127</v>
+        <v>10.78883293837126</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>7.138432984324803</v>
+        <v>7.138432984324802</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>28.21323379859338</v>
+        <v>28.21323379859337</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>36.13459521907354</v>
+        <v>36.13459521907353</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>6.4147227753124</v>
+        <v>6.414722775312399</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>7.191673441492178</v>
+        <v>7.191673441492177</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>81.92581082498913</v>
+        <v>81.92581082498911</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15767,7 +15767,7 @@
         <v>1928</v>
       </c>
       <c r="B1928">
-        <v>50.96559873533986</v>
+        <v>50.96559873533985</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>175.7683296885066</v>
+        <v>175.7683296885065</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>177.5780140451365</v>
+        <v>177.5780140451364</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>5.114227368028647</v>
+        <v>5.114227368028646</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>9.952595759496528</v>
+        <v>9.952595759496527</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>12.4389195994774</v>
+        <v>12.43891959947739</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>6.562065412283546</v>
+        <v>6.562065412283545</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16383,7 +16383,7 @@
         <v>2005</v>
       </c>
       <c r="B2005">
-        <v>3.714838362530047</v>
+        <v>3.714838362530046</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>7.48069716910961</v>
+        <v>7.480697169109608</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16487,7 +16487,7 @@
         <v>2018</v>
       </c>
       <c r="B2018">
-        <v>5.836787566285343</v>
+        <v>5.836787566285342</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>5.40150146154527</v>
+        <v>5.401501461545269</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>4.741363929168248</v>
+        <v>4.741363929168247</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16607,7 +16607,7 @@
         <v>2033</v>
       </c>
       <c r="B2033">
-        <v>5.276631511818677</v>
+        <v>5.276631511818676</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>5.933039715228734</v>
+        <v>5.933039715228733</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>3.372987114838715</v>
+        <v>3.372987114838714</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>14.71116969926809</v>
+        <v>14.71116969926808</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>3.141339955957284</v>
+        <v>3.141339955957283</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>3.699377986027546</v>
+        <v>3.699377986027545</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>54.4297775414974</v>
+        <v>54.42977754149739</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17055,7 +17055,7 @@
         <v>2089</v>
       </c>
       <c r="B2089">
-        <v>9.219173762404965</v>
+        <v>9.219173762404964</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17119,7 +17119,7 @@
         <v>2097</v>
       </c>
       <c r="B2097">
-        <v>7.594033601180726</v>
+        <v>7.594033601180724</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>6.273856422153592</v>
+        <v>6.273856422153591</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>26.4407987709773</v>
+        <v>26.44079877097729</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>7.787782278697663</v>
+        <v>7.787782278697662</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17423,7 +17423,7 @@
         <v>2135</v>
       </c>
       <c r="B2135">
-        <v>42.63756901090284</v>
+        <v>42.63756901090282</v>
       </c>
     </row>
     <row r="2136" spans="1:2">
@@ -17463,7 +17463,7 @@
         <v>2140</v>
       </c>
       <c r="B2140">
-        <v>6.519385769994333</v>
+        <v>6.519385769994332</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>7.028568564848708</v>
+        <v>7.028568564848707</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>11.86304966205979</v>
+        <v>11.86304966205978</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>40.50496139961351</v>
+        <v>40.5049613996135</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17631,7 +17631,7 @@
         <v>2161</v>
       </c>
       <c r="B2161">
-        <v>8.311813517725817</v>
+        <v>8.311813517725815</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>5.964228335163074</v>
+        <v>5.964228335163073</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>4.958980605144804</v>
+        <v>4.958980605144803</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>6.39288019080097</v>
+        <v>6.392880190800969</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>222.1653202006248</v>
+        <v>222.1653202006247</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>231.8864220773931</v>
+        <v>231.886422077393</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>452.8624834488132</v>
+        <v>452.8624834488131</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>85.07647102611793</v>
+        <v>85.0764710261179</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>42.20527750603581</v>
+        <v>42.2052775060358</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>8.11991646303114</v>
+        <v>8.119916463031139</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>17.72354140009414</v>
+        <v>17.72354140009413</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>513.5866326782415</v>
+        <v>513.5866326782414</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>9.438329354405534</v>
+        <v>9.438329354405532</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>25.18390500747039</v>
+        <v>25.18390500747038</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>457.0116982235793</v>
+        <v>457.0116982235792</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>9.576277892303429</v>
+        <v>9.576277892303427</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>7.752990643414021</v>
+        <v>7.75299064341402</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>61.85125648346406</v>
+        <v>61.85125648346405</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>17.78902519297263</v>
+        <v>17.78902519297262</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>5.808877238989469</v>
+        <v>5.808877238989467</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>4.192284787678825</v>
+        <v>4.192284787678824</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>240.2224760868687</v>
+        <v>240.2224760868686</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>78.21646930286022</v>
+        <v>78.2164693028602</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>24.79553019774676</v>
+        <v>24.79553019774675</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>6.062181761485894</v>
+        <v>6.062181761485893</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>3.707309660617876</v>
+        <v>3.707309660617875</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>94.31049469805185</v>
+        <v>94.31049469805184</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>66.05742082246286</v>
+        <v>66.05742082246284</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>320.9739805670456</v>
+        <v>320.9739805670455</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>377.3735090743586</v>
+        <v>377.3735090743585</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>440.6425934207897</v>
+        <v>440.6425934207896</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20127,7 +20127,7 @@
         <v>2473</v>
       </c>
       <c r="B2473">
-        <v>9.510923050681949</v>
+        <v>9.510923050681948</v>
       </c>
     </row>
     <row r="2474" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>6.84246523151733</v>
+        <v>6.842465231517329</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>5.782938400570669</v>
+        <v>5.782938400570668</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>6.524088680951731</v>
+        <v>6.52408868095173</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>5.769849554913013</v>
+        <v>5.769849554913012</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>142.2330020262932</v>
+        <v>142.2330020262931</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>9.636383831622483</v>
+        <v>9.636383831622481</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20599,7 +20599,7 @@
         <v>2532</v>
       </c>
       <c r="B2532">
-        <v>312.8457725381887</v>
+        <v>312.8457725381886</v>
       </c>
     </row>
     <row r="2533" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>36.68623404301463</v>
+        <v>36.68623404301462</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>6.931618027620187</v>
+        <v>6.931618027620186</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>60.17144069619612</v>
+        <v>60.17144069619611</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>89.4706316442868</v>
+        <v>89.47063164428678</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>324.6191395317077</v>
+        <v>324.6191395317076</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21303,7 +21303,7 @@
         <v>2620</v>
       </c>
       <c r="B2620">
-        <v>6.408986202801642</v>
+        <v>6.408986202801641</v>
       </c>
     </row>
     <row r="2621" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>7.309924967952682</v>
+        <v>7.309924967952681</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>6.474057351657699</v>
+        <v>6.474057351657698</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>7.28515167305464</v>
+        <v>7.285151673054638</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>7.271486356663938</v>
+        <v>7.271486356663937</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>297.1384250714068</v>
+        <v>297.1384250714067</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>7.44970754441052</v>
+        <v>7.449707544410519</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>8.548148934012712</v>
+        <v>8.54814893401271</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>5.050828775590231</v>
+        <v>5.05082877559023</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -21975,7 +21975,7 @@
         <v>2704</v>
       </c>
       <c r="B2704">
-        <v>5.910431043022242</v>
+        <v>5.910431043022241</v>
       </c>
     </row>
     <row r="2705" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>8.191792721404914</v>
+        <v>8.191792721404912</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>7.465844328870253</v>
+        <v>7.465844328870252</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>7.281725086470611</v>
+        <v>7.28172508647061</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>128.4175597029667</v>
+        <v>128.4175597029666</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22167,7 +22167,7 @@
         <v>2728</v>
       </c>
       <c r="B2728">
-        <v>49.00205735869141</v>
+        <v>49.0020573586914</v>
       </c>
     </row>
     <row r="2729" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>157.0567256579592</v>
+        <v>157.0567256579591</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>121.19589395752</v>
+        <v>121.1958939575199</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>9.276243485763489</v>
+        <v>9.276243485763487</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>374.4820115927181</v>
+        <v>374.482011592718</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>7.679649909060058</v>
+        <v>7.679649909060056</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>276.9943923787463</v>
+        <v>276.9943923787462</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>487.3675245637492</v>
+        <v>487.367524563749</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>322.8999086204502</v>
+        <v>322.8999086204501</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>303.9432415180846</v>
+        <v>303.9432415180845</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>451.7877626429382</v>
+        <v>451.7877626429381</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>638.1533945539196</v>
+        <v>638.1533945539195</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>254.9425258386082</v>
+        <v>254.9425258386081</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>60.259039629652</v>
+        <v>60.25903962965199</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>513.8341253089702</v>
+        <v>513.8341253089701</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23903,7 +23903,7 @@
         <v>2945</v>
       </c>
       <c r="B2945">
-        <v>366.5492526395444</v>
+        <v>366.5492526395443</v>
       </c>
     </row>
     <row r="2946" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>7.809936104652151</v>
+        <v>7.80993610465215</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24199,7 +24199,7 @@
         <v>2982</v>
       </c>
       <c r="B2982">
-        <v>9.783376541773467</v>
+        <v>9.783376541773466</v>
       </c>
     </row>
     <row r="2983" spans="1:2">
@@ -24423,7 +24423,7 @@
         <v>3010</v>
       </c>
       <c r="B3010">
-        <v>426.2547689984767</v>
+        <v>426.2547689984766</v>
       </c>
     </row>
     <row r="3011" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>428.9177296841691</v>
+        <v>428.917729684169</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>444.4388305058817</v>
+        <v>444.4388305058816</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>462.0160298135307</v>
+        <v>462.0160298135306</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>457.5545214706774</v>
+        <v>457.5545214706773</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>649.089047290529</v>
+        <v>649.0890472905289</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>52.89674345323262</v>
+        <v>52.89674345323261</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>73.49254515198957</v>
+        <v>73.49254515198956</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>81.87478715715818</v>
+        <v>81.87478715715817</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>552.5115894942239</v>
+        <v>552.5115894942238</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>88.92507990581871</v>
+        <v>88.92507990581869</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>374.4758277938023</v>
+        <v>374.4758277938022</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>676.4064918751917</v>
+        <v>676.4064918751916</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25447,7 +25447,7 @@
         <v>3138</v>
       </c>
       <c r="B3138">
-        <v>653.1633208699991</v>
+        <v>653.163320869999</v>
       </c>
     </row>
     <row r="3139" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>273.4703303672591</v>
+        <v>273.470330367259</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>183.4046765931782</v>
+        <v>183.4046765931781</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>601.7763035653265</v>
+        <v>601.7763035653263</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>679.3340077874836</v>
+        <v>679.3340077874835</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25703,7 +25703,7 @@
         <v>3170</v>
       </c>
       <c r="B3170">
-        <v>271.0543992600543</v>
+        <v>271.0543992600542</v>
       </c>
     </row>
     <row r="3171" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>190.3743161919991</v>
+        <v>190.374316191999</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>372.6792730197044</v>
+        <v>372.6792730197043</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>252.3338419092758</v>
+        <v>252.3338419092757</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>129.3767375449205</v>
+        <v>129.3767375449204</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>601.2824202509744</v>
+        <v>601.2824202509743</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26215,7 +26215,7 @@
         <v>3234</v>
       </c>
       <c r="B3234">
-        <v>650.8856020646269</v>
+        <v>650.8856020646268</v>
       </c>
     </row>
     <row r="3235" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>66.73892821576594</v>
+        <v>66.73892821576592</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>593.9529480308851</v>
+        <v>593.952948030885</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>814.4555531393477</v>
+        <v>814.4555531393476</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>566.6669206615669</v>
+        <v>566.6669206615668</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>708.9793742464412</v>
+        <v>708.9793742464411</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>730.6477866395949</v>
+        <v>730.6477866395948</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26599,7 +26599,7 @@
         <v>3282</v>
       </c>
       <c r="B3282">
-        <v>623.3752874294213</v>
+        <v>623.3752874294211</v>
       </c>
     </row>
     <row r="3283" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>70.31524479344647</v>
+        <v>70.31524479344645</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26743,7 +26743,7 @@
         <v>3300</v>
       </c>
       <c r="B3300">
-        <v>64.55616442692012</v>
+        <v>64.55616442692011</v>
       </c>
     </row>
     <row r="3301" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>77.13102209697018</v>
+        <v>77.13102209697017</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>61.32602629081674</v>
+        <v>61.32602629081673</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>308.8849174506806</v>
+        <v>308.8849174506805</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>18.1737571296857</v>
+        <v>18.17375712968569</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>6.864117612924668</v>
+        <v>6.864117612924667</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>69.50062453438339</v>
+        <v>69.50062453438338</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>51.76157967634407</v>
+        <v>51.76157967634406</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>6.79041229819861</v>
+        <v>6.790412298198609</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>179.2918641721242</v>
+        <v>179.2918641721241</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>295.3517467913118</v>
+        <v>295.3517467913117</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27431,7 +27431,7 @@
         <v>3386</v>
       </c>
       <c r="B3386">
-        <v>7.414253861650542</v>
+        <v>7.414253861650541</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>6.715288226574393</v>
+        <v>6.715288226574392</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>177.9283511647523</v>
+        <v>177.9283511647522</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>123.7066628528356</v>
+        <v>123.7066628528355</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -27703,7 +27703,7 @@
         <v>3420</v>
       </c>
       <c r="B3420">
-        <v>444.9379597918259</v>
+        <v>444.9379597918258</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>547.758622003422</v>
+        <v>547.7586220034219</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>28.49449700510706</v>
+        <v>28.49449700510705</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>251.2996821351515</v>
+        <v>251.2996821351514</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>593.2321984255053</v>
+        <v>593.2321984255052</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>721.7610521484745</v>
+        <v>721.7610521484744</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>817.1562027606121</v>
+        <v>817.156202760612</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>169.4243381430199</v>
+        <v>169.4243381430198</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>275.0573979629219</v>
+        <v>275.0573979629218</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>654.1222493084989</v>
+        <v>654.1222493084988</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>635.0201720795911</v>
+        <v>635.020172079591</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>602.6126696954582</v>
+        <v>602.6126696954581</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28103,7 +28103,7 @@
         <v>3470</v>
       </c>
       <c r="B3470">
-        <v>626.1893555426475</v>
+        <v>626.1893555426474</v>
       </c>
     </row>
     <row r="3471" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>835.166883441545</v>
+        <v>835.1668834415449</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28223,7 +28223,7 @@
         <v>3485</v>
       </c>
       <c r="B3485">
-        <v>55.41425591314782</v>
+        <v>55.41425591314781</v>
       </c>
     </row>
     <row r="3486" spans="1:2">
@@ -28231,7 +28231,7 @@
         <v>3486</v>
       </c>
       <c r="B3486">
-        <v>65.85376575769709</v>
+        <v>65.85376575769708</v>
       </c>
     </row>
     <row r="3487" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>863.8561935581814</v>
+        <v>863.8561935581813</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>903.2376729925074</v>
+        <v>903.2376729925073</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>794.2755606302435</v>
+        <v>794.2755606302434</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28527,7 +28527,7 @@
         <v>3523</v>
       </c>
       <c r="B3523">
-        <v>623.7035269927219</v>
+        <v>623.7035269927218</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>562.8605433185372</v>
+        <v>562.8605433185371</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>414.3630306124423</v>
+        <v>414.3630306124422</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>98.59633626033148</v>
+        <v>98.59633626033147</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28631,7 +28631,7 @@
         <v>3536</v>
       </c>
       <c r="B3536">
-        <v>424.0383020401848</v>
+        <v>424.0383020401847</v>
       </c>
     </row>
     <row r="3537" spans="1:2">
@@ -28815,7 +28815,7 @@
         <v>3559</v>
       </c>
       <c r="B3559">
-        <v>373.5120636831645</v>
+        <v>373.5120636831644</v>
       </c>
     </row>
     <row r="3560" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>3561</v>
       </c>
       <c r="B3561">
-        <v>696.9249814339498</v>
+        <v>696.9249814339497</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>773.0953166661881</v>
+        <v>773.095316666188</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>432.2802509391462</v>
+        <v>432.2802509391461</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -28967,7 +28967,7 @@
         <v>3578</v>
       </c>
       <c r="B3578">
-        <v>141.7214758354137</v>
+        <v>141.7214758354136</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>624.4221371795196</v>
+        <v>624.4221371795195</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29135,7 +29135,7 @@
         <v>3599</v>
       </c>
       <c r="B3599">
-        <v>399.2351138961978</v>
+        <v>399.2351138961977</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -29183,7 +29183,7 @@
         <v>3605</v>
       </c>
       <c r="B3605">
-        <v>324.2113897956182</v>
+        <v>324.2113897956181</v>
       </c>
     </row>
     <row r="3606" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>679.4673258029708</v>
+        <v>679.4673258029707</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>930.6596853237645</v>
+        <v>930.6596853237644</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>650.1461252198766</v>
+        <v>650.1461252198765</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>760.8792365616673</v>
+        <v>760.8792365616671</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>964.1515505509444</v>
+        <v>964.1515505509442</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29551,7 +29551,7 @@
         <v>3651</v>
       </c>
       <c r="B3651">
-        <v>151.7280289038382</v>
+        <v>151.7280289038381</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>293.2461486069455</v>
+        <v>293.2461486069454</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>432.7858864021486</v>
+        <v>432.7858864021485</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>513.6200369152281</v>
+        <v>513.620036915228</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29727,7 +29727,7 @@
         <v>3673</v>
       </c>
       <c r="B3673">
-        <v>89.64395385655111</v>
+        <v>89.64395385655109</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>468.6947377922725</v>
+        <v>468.6947377922724</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>811.3703943153597</v>
+        <v>811.3703943153596</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>850.9493450155358</v>
+        <v>850.9493450155356</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30047,7 +30047,7 @@
         <v>3713</v>
       </c>
       <c r="B3713">
-        <v>852.1178192466786</v>
+        <v>852.1178192466784</v>
       </c>
     </row>
     <row r="3714" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>620.2951108130906</v>
+        <v>620.2951108130904</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30167,7 +30167,7 @@
         <v>3728</v>
       </c>
       <c r="B3728">
-        <v>299.4402343161569</v>
+        <v>299.4402343161568</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>558.2267678191588</v>
+        <v>558.2267678191587</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>594.1862911918672</v>
+        <v>594.1862911918671</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>593.6977417704188</v>
+        <v>593.6977417704187</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>278.4862705010519</v>
+        <v>278.4862705010518</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>752.7588242224388</v>
+        <v>752.7588242224386</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30463,7 +30463,7 @@
         <v>3765</v>
       </c>
       <c r="B3765">
-        <v>686.6798040644264</v>
+        <v>686.6798040644263</v>
       </c>
     </row>
     <row r="3766" spans="1:2">
@@ -30527,7 +30527,7 @@
         <v>3773</v>
       </c>
       <c r="B3773">
-        <v>487.1426804628882</v>
+        <v>487.1426804628881</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>866.6658656058278</v>
+        <v>866.6658656058277</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>410.6525168061588</v>
+        <v>410.6525168061587</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>294.7440346855436</v>
+        <v>294.7440346855435</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>285.8019683823241</v>
+        <v>285.801968382324</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>442.4443648593758</v>
+        <v>442.4443648593757</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>787.0818389152621</v>
+        <v>787.0818389152619</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>759.9135674892782</v>
+        <v>759.9135674892781</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>819.662546283244</v>
+        <v>819.6625462832437</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>317.8733475922163</v>
+        <v>317.8733475922162</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>224.7755515450413</v>
+        <v>224.7755515450412</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>298.3117349746875</v>
+        <v>298.3117349746874</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -31023,7 +31023,7 @@
         <v>3835</v>
       </c>
       <c r="B3835">
-        <v>589.4786910978501</v>
+        <v>589.4786910978499</v>
       </c>
     </row>
     <row r="3836" spans="1:2">
@@ -31071,7 +31071,7 @@
         <v>3841</v>
       </c>
       <c r="B3841">
-        <v>90.88985745610822</v>
+        <v>90.8898574561082</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>71.25995928657132</v>
+        <v>71.2599592865713</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>366.3364537583724</v>
+        <v>366.3364537583723</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>76.7901218647993</v>
+        <v>76.79012186479929</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31423,7 +31423,7 @@
         <v>3885</v>
       </c>
       <c r="B3885">
-        <v>434.7357173294664</v>
+        <v>434.7357173294663</v>
       </c>
     </row>
     <row r="3886" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>337.3699570533701</v>
+        <v>337.36995705337</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>593.6901219234136</v>
+        <v>593.6901219234135</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>617.4508563828822</v>
+        <v>617.450856382882</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>324.5286391949691</v>
+        <v>324.528639194969</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>1300.054628441607</v>
+        <v>1300.054628441606</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31839,7 +31839,7 @@
         <v>3937</v>
       </c>
       <c r="B3937">
-        <v>412.629837796903</v>
+        <v>412.6298377969029</v>
       </c>
     </row>
     <row r="3938" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>918.6707059671023</v>
+        <v>918.6707059671022</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>807.8172889639412</v>
+        <v>807.8172889639411</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>459.0105570049548</v>
+        <v>459.0105570049546</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>427.8323997066946</v>
+        <v>427.8323997066945</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32167,7 +32167,7 @@
         <v>3978</v>
       </c>
       <c r="B3978">
-        <v>1274.475974329322</v>
+        <v>1274.475974329321</v>
       </c>
     </row>
     <row r="3979" spans="1:2">
@@ -32199,7 +32199,7 @@
         <v>3982</v>
       </c>
       <c r="B3982">
-        <v>777.9091843188238</v>
+        <v>777.9091843188237</v>
       </c>
     </row>
     <row r="3983" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>551.0506010593933</v>
+        <v>551.0506010593932</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>508.5887691661134</v>
+        <v>508.5887691661133</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>546.7776839299186</v>
+        <v>546.7776839299185</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32303,7 +32303,7 @@
         <v>3995</v>
       </c>
       <c r="B3995">
-        <v>1168.169730333615</v>
+        <v>1168.169730333614</v>
       </c>
     </row>
     <row r="3996" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>938.4665116516253</v>
+        <v>938.4665116516252</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>803.1403734076719</v>
+        <v>803.1403734076717</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32423,7 +32423,7 @@
         <v>4010</v>
       </c>
       <c r="B4010">
-        <v>328.1166727527753</v>
+        <v>328.1166727527752</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -32431,7 +32431,7 @@
         <v>4011</v>
       </c>
       <c r="B4011">
-        <v>329.9642394718626</v>
+        <v>329.9642394718625</v>
       </c>
     </row>
     <row r="4012" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>343.6913235146721</v>
+        <v>343.691323514672</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>452.8803900892753</v>
+        <v>452.8803900892752</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>500.7775760797763</v>
+        <v>500.7775760797762</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>768.2071848123555</v>
+        <v>768.2071848123553</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>431.1065014293075</v>
+        <v>431.1065014293074</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>685.1406535835849</v>
+        <v>685.1406535835847</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>941.2562548686427</v>
+        <v>941.2562548686426</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>1182.286083052816</v>
+        <v>1182.286083052815</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>639.1164259869607</v>
+        <v>639.1164259869606</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>724.8282750248964</v>
+        <v>724.8282750248962</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>423.4140021136284</v>
+        <v>423.4140021136283</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>948.2703240369248</v>
+        <v>948.2703240369246</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>1192.50048796328</v>
+        <v>1192.500487963279</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>996.1197394481239</v>
+        <v>996.1197394481238</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33647,7 +33647,7 @@
         <v>4163</v>
       </c>
       <c r="B4163">
-        <v>892.9285475223483</v>
+        <v>892.9285475223481</v>
       </c>
     </row>
     <row r="4164" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>939.6311759592656</v>
+        <v>939.6311759592655</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>1033.593560877596</v>
+        <v>1033.593560877595</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>922.8045022745245</v>
+        <v>922.8045022745243</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33703,7 +33703,7 @@
         <v>4170</v>
       </c>
       <c r="B4170">
-        <v>784.571392398089</v>
+        <v>784.5713923980888</v>
       </c>
     </row>
     <row r="4171" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>924.9512476327187</v>
+        <v>924.9512476327186</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>623.3380674075112</v>
+        <v>623.3380674075111</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>579.1975978725387</v>
+        <v>579.1975978725386</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>281.0038972586722</v>
+        <v>281.0038972586721</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>860.0031886129007</v>
+        <v>860.0031886129005</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>848.8916932530944</v>
+        <v>848.8916932530943</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>793.697917613042</v>
+        <v>793.6979176130419</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>714.1733843433245</v>
+        <v>714.1733843433244</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>710.5730066333701</v>
+        <v>710.5730066333699</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>731.9616241059136</v>
+        <v>731.9616241059135</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>732.2371108822553</v>
+        <v>732.2371108822551</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>650.9916644735185</v>
+        <v>650.9916644735183</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>614.8536608382653</v>
+        <v>614.8536608382652</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>996.9456136350716</v>
+        <v>996.9456136350715</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>603.0004026796072</v>
+        <v>603.0004026796071</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>997.7662125433234</v>
+        <v>997.7662125433231</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>268.9338837598201</v>
+        <v>268.93388375982</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>366.3848104797515</v>
+        <v>366.3848104797514</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>923.5190094667807</v>
+        <v>923.5190094667806</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>678.113425525667</v>
+        <v>678.1134255256669</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>604.4563795996768</v>
+        <v>604.4563795996767</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35071,7 +35071,7 @@
         <v>4341</v>
       </c>
       <c r="B4341">
-        <v>528.9302145104161</v>
+        <v>528.930214510416</v>
       </c>
     </row>
     <row r="4342" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>310.2902516952695</v>
+        <v>310.2902516952694</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35119,7 +35119,7 @@
         <v>4347</v>
       </c>
       <c r="B4347">
-        <v>263.9157455932374</v>
+        <v>263.9157455932373</v>
       </c>
     </row>
     <row r="4348" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>599.5849527950479</v>
+        <v>599.5849527950478</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>829.1891134659695</v>
+        <v>829.1891134659693</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>824.4797549457204</v>
+        <v>824.4797549457203</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>773.6404287980981</v>
+        <v>773.640428798098</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>586.3838609295863</v>
+        <v>586.3838609295861</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>864.0109350665946</v>
+        <v>864.0109350665945</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>783.8149760473041</v>
+        <v>783.814976047304</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>445.5141081467302</v>
+        <v>445.5141081467301</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>330.5067608557909</v>
+        <v>330.5067608557908</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>507.6075380215712</v>
+        <v>507.6075380215711</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>778.6179473187224</v>
+        <v>778.6179473187223</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35695,7 +35695,7 @@
         <v>4419</v>
       </c>
       <c r="B4419">
-        <v>289.6602779134046</v>
+        <v>289.6602779134045</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
@@ -35735,7 +35735,7 @@
         <v>4424</v>
       </c>
       <c r="B4424">
-        <v>366.7631651906633</v>
+        <v>366.7631651906632</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
@@ -35799,7 +35799,7 @@
         <v>4432</v>
       </c>
       <c r="B4432">
-        <v>410.8765110010077</v>
+        <v>410.8765110010076</v>
       </c>
     </row>
     <row r="4433" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>417.2543229443559</v>
+        <v>417.2543229443558</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35935,7 +35935,7 @@
         <v>4449</v>
       </c>
       <c r="B4449">
-        <v>759.6354430735885</v>
+        <v>759.6354430735884</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>833.7249739313312</v>
+        <v>833.7249739313311</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>996.6370098313612</v>
+        <v>996.637009831361</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36015,7 +36015,7 @@
         <v>4459</v>
       </c>
       <c r="B4459">
-        <v>987.0790840474988</v>
+        <v>987.0790840474986</v>
       </c>
     </row>
     <row r="4460" spans="1:2">
@@ -36119,7 +36119,7 @@
         <v>4472</v>
       </c>
       <c r="B4472">
-        <v>836.5085626565368</v>
+        <v>836.5085626565366</v>
       </c>
     </row>
     <row r="4473" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>1038.310832315889</v>
+        <v>1038.310832315888</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>400.8360730590932</v>
+        <v>400.8360730590931</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>1208.437691045684</v>
+        <v>1208.437691045683</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>1298.38793344474</v>
+        <v>1298.387933444739</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>912.2888203363167</v>
+        <v>912.2888203363166</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>767.2406365268504</v>
+        <v>767.2406365268503</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>894.1477230431794</v>
+        <v>894.1477230431793</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>993.3985748541534</v>
+        <v>993.3985748541531</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>790.2511091273459</v>
+        <v>790.2511091273458</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>674.9252522315894</v>
+        <v>674.9252522315893</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>870.4781336767346</v>
+        <v>870.4781336767344</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>898.6314168636593</v>
+        <v>898.6314168636592</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>503.4131053162501</v>
+        <v>503.41310531625</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>717.0378313680967</v>
+        <v>717.0378313680966</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>678.5763898454403</v>
+        <v>678.5763898454402</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>691.0840756334292</v>
+        <v>691.0840756334291</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -36999,7 +36999,7 @@
         <v>4582</v>
       </c>
       <c r="B4582">
-        <v>501.4772831845803</v>
+        <v>501.4772831845802</v>
       </c>
     </row>
     <row r="4583" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>290.9822627545982</v>
+        <v>290.9822627545981</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>234.0352775470658</v>
+        <v>234.0352775470657</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>998.209629024818</v>
+        <v>998.2096290248179</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37183,7 +37183,7 @@
         <v>4605</v>
       </c>
       <c r="B4605">
-        <v>692.3797251110888</v>
+        <v>692.3797251110886</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>281.6829721623544</v>
+        <v>281.6829721623543</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>356.6630579852773</v>
+        <v>356.6630579852772</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>722.3137255131822</v>
+        <v>722.313725513182</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>723.5639665641115</v>
+        <v>723.5639665641114</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>952.1458954521822</v>
+        <v>952.1458954521821</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>890.5854445682509</v>
+        <v>890.5854445682508</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>701.6064982055261</v>
+        <v>701.606498205526</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>361.8312192165508</v>
+        <v>361.8312192165507</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37431,7 +37431,7 @@
         <v>4636</v>
       </c>
       <c r="B4636">
-        <v>365.5316806862083</v>
+        <v>365.5316806862082</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>539.7029197495299</v>
+        <v>539.7029197495298</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>845.8062413580678</v>
+        <v>845.8062413580677</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>497.0836794013849</v>
+        <v>497.0836794013848</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>707.9783901138934</v>
+        <v>707.9783901138933</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>777.0649638848558</v>
+        <v>777.0649638848557</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>738.7046025634338</v>
+        <v>738.7046025634337</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>211.2527262933372</v>
+        <v>211.2527262933371</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>812.6733881532481</v>
+        <v>812.673388153248</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>987.9477466060908</v>
+        <v>987.9477466060907</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>958.6324367508739</v>
+        <v>958.6324367508738</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37999,7 +37999,7 @@
         <v>4707</v>
       </c>
       <c r="B4707">
-        <v>207.5678356879638</v>
+        <v>207.5678356879637</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38007,7 +38007,7 @@
         <v>4708</v>
       </c>
       <c r="B4708">
-        <v>195.0022009635004</v>
+        <v>195.0022009635003</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>494.1730121431054</v>
+        <v>494.1730121431053</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>427.1972854588116</v>
+        <v>427.1972854588115</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>917.5421187043214</v>
+        <v>917.5421187043212</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38327,7 +38327,7 @@
         <v>4748</v>
       </c>
       <c r="B4748">
-        <v>886.9639950506164</v>
+        <v>886.9639950506163</v>
       </c>
     </row>
     <row r="4749" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>390.3310589066927</v>
+        <v>390.3310589066926</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38759,7 +38759,7 @@
         <v>4802</v>
       </c>
       <c r="B4802">
-        <v>502.997823654467</v>
+        <v>502.9978236544669</v>
       </c>
     </row>
     <row r="4803" spans="1:2">
@@ -38799,7 +38799,7 @@
         <v>4807</v>
       </c>
       <c r="B4807">
-        <v>806.3480359258202</v>
+        <v>806.3480359258201</v>
       </c>
     </row>
     <row r="4808" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>1045.73666629349</v>
+        <v>1045.736666293489</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>721.082657169602</v>
+        <v>721.0826571696019</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39119,7 +39119,7 @@
         <v>4847</v>
       </c>
       <c r="B4847">
-        <v>773.3883877048494</v>
+        <v>773.3883877048493</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>988.3143784754562</v>
+        <v>988.3143784754561</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39303,7 +39303,7 @@
         <v>4870</v>
       </c>
       <c r="B4870">
-        <v>702.1272854412274</v>
+        <v>702.1272854412271</v>
       </c>
     </row>
     <row r="4871" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>696.1612383071983</v>
+        <v>696.1612383071981</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>442.0775278402834</v>
+        <v>442.0775278402833</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>447.7402171421941</v>
+        <v>447.740217142194</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>666.9698975013349</v>
+        <v>666.9698975013348</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>546.4501477371107</v>
+        <v>546.4501477371106</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>646.0085776031597</v>
+        <v>646.0085776031596</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>765.2817497044379</v>
+        <v>765.2817497044377</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>536.2567560201188</v>
+        <v>536.2567560201187</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39911,7 +39911,7 @@
         <v>4946</v>
       </c>
       <c r="B4946">
-        <v>401.8569274080622</v>
+        <v>401.8569274080621</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>373.9003241951831</v>
+        <v>373.900324195183</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -40055,7 +40055,7 @@
         <v>4964</v>
       </c>
       <c r="B4964">
-        <v>724.3971675270257</v>
+        <v>724.3971675270255</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40127,7 +40127,7 @@
         <v>4973</v>
       </c>
       <c r="B4973">
-        <v>401.7193891696185</v>
+        <v>401.7193891696184</v>
       </c>
     </row>
     <row r="4974" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>393.8716501247604</v>
+        <v>393.8716501247603</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>887.5294463126096</v>
+        <v>887.5294463126095</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>315.6624196765551</v>
+        <v>315.662419676555</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40287,7 +40287,7 @@
         <v>4993</v>
       </c>
       <c r="B4993">
-        <v>227.3777468815777</v>
+        <v>227.3777468815776</v>
       </c>
     </row>
     <row r="4994" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>180.116261281037</v>
+        <v>180.1162612810369</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>720.1723140478915</v>
+        <v>720.1723140478914</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>667.6565629449186</v>
+        <v>667.6565629449185</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>764.7813309059238</v>
+        <v>764.7813309059237</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>474.62256846286</v>
+        <v>474.6225684628599</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>534.6739965687243</v>
+        <v>534.6739965687242</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>475.3954847131216</v>
+        <v>475.3954847131215</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>530.5807906001568</v>
+        <v>530.5807906001567</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>240.0735080779171</v>
+        <v>240.073508077917</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>373.4186326360393</v>
+        <v>373.4186326360392</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>363.5936312146447</v>
+        <v>363.5936312146446</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>595.0663835209673</v>
+        <v>595.0663835209672</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>657.2413164516601</v>
+        <v>657.2413164516599</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>581.1428715452054</v>
+        <v>581.1428715452053</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>218.5158179231697</v>
+        <v>218.5158179231696</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>423.4636190404738</v>
+        <v>423.4636190404736</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>442.5758072202154</v>
+        <v>442.5758072202153</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>381.5056934910681</v>
+        <v>381.505693491068</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41079,7 +41079,7 @@
         <v>5092</v>
       </c>
       <c r="B5092">
-        <v>319.6548971291348</v>
+        <v>319.6548971291347</v>
       </c>
     </row>
     <row r="5093" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>381.173175090603</v>
+        <v>381.1731750906029</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>1089.808102945306</v>
+        <v>1089.808102945305</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>988.4559317871297</v>
+        <v>988.4559317871294</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>366.7320117392536</v>
+        <v>366.7320117392535</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>369.3829272052571</v>
+        <v>369.382927205257</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>518.4359267580306</v>
+        <v>518.4359267580305</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>562.385738928802</v>
+        <v>562.3857389288019</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>687.9722473449229</v>
+        <v>687.9722473449228</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>943.4452024564044</v>
+        <v>943.4452024564042</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41607,7 +41607,7 @@
         <v>5158</v>
       </c>
       <c r="B5158">
-        <v>619.168838811515</v>
+        <v>619.1688388115149</v>
       </c>
     </row>
     <row r="5159" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>793.8412293509474</v>
+        <v>793.8412293509473</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>993.7959791825782</v>
+        <v>993.7959791825781</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>667.6817670542434</v>
+        <v>667.6817670542433</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>743.1572308538157</v>
+        <v>743.1572308538156</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>51.13926091000903</v>
+        <v>51.13926091000902</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>99.46411081367658</v>
+        <v>99.46411081367657</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42071,7 +42071,7 @@
         <v>5216</v>
       </c>
       <c r="B5216">
-        <v>193.2814636671042</v>
+        <v>193.2814636671041</v>
       </c>
     </row>
     <row r="5217" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>665.1239602572226</v>
+        <v>665.1239602572225</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>695.5970765577752</v>
+        <v>695.597076557775</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>53.34628511943525</v>
+        <v>53.34628511943524</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>48.12061455824524</v>
+        <v>48.12061455824523</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>538.113888577908</v>
+        <v>538.1138885779079</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42287,7 +42287,7 @@
         <v>5243</v>
       </c>
       <c r="B5243">
-        <v>537.2724816259113</v>
+        <v>537.2724816259112</v>
       </c>
     </row>
     <row r="5244" spans="1:2">
@@ -42383,7 +42383,7 @@
         <v>5255</v>
       </c>
       <c r="B5255">
-        <v>245.8240014630107</v>
+        <v>245.8240014630106</v>
       </c>
     </row>
     <row r="5256" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>181.4446174866111</v>
+        <v>181.444617486611</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>761.8528185521002</v>
+        <v>761.8528185521001</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>864.1126307170101</v>
+        <v>864.11263071701</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>895.700706477046</v>
+        <v>895.7007064770457</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42551,7 +42551,7 @@
         <v>5276</v>
       </c>
       <c r="B5276">
-        <v>533.2152061666836</v>
+        <v>533.2152061666835</v>
       </c>
     </row>
     <row r="5277" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>650.1531882319083</v>
+        <v>650.1531882319082</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>727.1335718150067</v>
+        <v>727.1335718150066</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>407.3272448801956</v>
+        <v>407.3272448801955</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42775,7 +42775,7 @@
         <v>5304</v>
       </c>
       <c r="B5304">
-        <v>350.6747960665178</v>
+        <v>350.6747960665177</v>
       </c>
     </row>
     <row r="5305" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>723.8968952640307</v>
+        <v>723.8968952640306</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>846.0972608994584</v>
+        <v>846.0972608994583</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>898.1493150050615</v>
+        <v>898.1493150050612</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -42943,7 +42943,7 @@
         <v>5325</v>
       </c>
       <c r="B5325">
-        <v>672.4309832357505</v>
+        <v>672.4309832357503</v>
       </c>
     </row>
     <row r="5326" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>384.3425039168945</v>
+        <v>384.3425039168944</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>794.5191026633711</v>
+        <v>794.519102663371</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43119,7 +43119,7 @@
         <v>5347</v>
       </c>
       <c r="B5347">
-        <v>755.3117367331138</v>
+        <v>755.3117367331137</v>
       </c>
     </row>
     <row r="5348" spans="1:2">
@@ -43127,7 +43127,7 @@
         <v>5348</v>
       </c>
       <c r="B5348">
-        <v>638.6037861261343</v>
+        <v>638.6037861261342</v>
       </c>
     </row>
     <row r="5349" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>908.7889659926229</v>
+        <v>908.7889659926228</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>684.7364500070631</v>
+        <v>684.736450007063</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>486.4183846979406</v>
+        <v>486.4183846979405</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>649.3182288427621</v>
+        <v>649.318228842762</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43543,7 +43543,7 @@
         <v>5400</v>
       </c>
       <c r="B5400">
-        <v>532.0376467333424</v>
+        <v>532.0376467333423</v>
       </c>
     </row>
     <row r="5401" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>737.2190254684596</v>
+        <v>737.2190254684594</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>488.6223961370894</v>
+        <v>488.6223961370893</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>484.896290951549</v>
+        <v>484.8962909515489</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>280.9364909197801</v>
+        <v>280.93649091978</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44319,7 +44319,7 @@
         <v>5497</v>
       </c>
       <c r="B5497">
-        <v>384.4215158689176</v>
+        <v>384.4215158689175</v>
       </c>
     </row>
     <row r="5498" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>286.6232413539648</v>
+        <v>286.6232413539647</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>499.7567510379112</v>
+        <v>499.7567510379111</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>712.1841646684109</v>
+        <v>712.1841646684107</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44471,7 +44471,7 @@
         <v>5516</v>
       </c>
       <c r="B5516">
-        <v>606.4935750036195</v>
+        <v>606.4935750036194</v>
       </c>
     </row>
     <row r="5517" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>708.9455831556836</v>
+        <v>708.9455831556835</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>322.1168990036171</v>
+        <v>322.116899003617</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>280.0012133141001</v>
+        <v>280.0012133141</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44735,7 +44735,7 @@
         <v>5549</v>
       </c>
       <c r="B5549">
-        <v>428.6901600226486</v>
+        <v>428.6901600226485</v>
       </c>
     </row>
     <row r="5550" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>775.203171497552</v>
+        <v>775.2031714975519</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>972.1673365293707</v>
+        <v>972.1673365293705</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>996.6378890444772</v>
+        <v>996.6378890444771</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>870.0772124958459</v>
+        <v>870.0772124958457</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -44855,7 +44855,7 @@
         <v>5564</v>
       </c>
       <c r="B5564">
-        <v>778.71700532979</v>
+        <v>778.7170053297899</v>
       </c>
     </row>
     <row r="5565" spans="1:2">
@@ -44871,7 +44871,7 @@
         <v>5566</v>
       </c>
       <c r="B5566">
-        <v>635.3636513369022</v>
+        <v>635.3636513369021</v>
       </c>
     </row>
     <row r="5567" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>504.9297479413226</v>
+        <v>504.9297479413225</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>614.2596058428987</v>
+        <v>614.2596058428986</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45055,7 +45055,7 @@
         <v>5589</v>
       </c>
       <c r="B5589">
-        <v>618.8206704175852</v>
+        <v>618.8206704175851</v>
       </c>
     </row>
     <row r="5590" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>714.1575585072369</v>
+        <v>714.1575585072368</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>702.6556925239337</v>
+        <v>702.6556925239336</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>457.2960328145782</v>
+        <v>457.2960328145781</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45535,7 +45535,7 @@
         <v>5649</v>
       </c>
       <c r="B5649">
-        <v>580.5154064514314</v>
+        <v>580.5154064514313</v>
       </c>
     </row>
     <row r="5650" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>624.636372108781</v>
+        <v>624.6363721087808</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>696.0516297387391</v>
+        <v>696.0516297387389</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>836.32392790218</v>
+        <v>836.3239279021799</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>828.6404844815955</v>
+        <v>828.6404844815954</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>176.8765485141006</v>
+        <v>176.8765485141005</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45719,7 +45719,7 @@
         <v>5672</v>
       </c>
       <c r="B5672">
-        <v>363.2862290021928</v>
+        <v>363.2862290021927</v>
       </c>
     </row>
     <row r="5673" spans="1:2">
@@ -45791,7 +45791,7 @@
         <v>5681</v>
       </c>
       <c r="B5681">
-        <v>883.3079045362123</v>
+        <v>883.3079045362122</v>
       </c>
     </row>
     <row r="5682" spans="1:2">
@@ -45807,7 +45807,7 @@
         <v>5683</v>
       </c>
       <c r="B5683">
-        <v>674.5167405107994</v>
+        <v>674.5167405107993</v>
       </c>
     </row>
     <row r="5684" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>592.0042893877219</v>
+        <v>592.0042893877218</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>796.2532039991302</v>
+        <v>796.2532039991301</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>864.561029406162</v>
+        <v>864.5610294061619</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>576.2448045831622</v>
+        <v>576.2448045831621</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>481.8785384664531</v>
+        <v>481.878538466453</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>950.8077330896546</v>
+        <v>950.8077330896544</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46215,7 +46215,7 @@
         <v>5734</v>
       </c>
       <c r="B5734">
-        <v>556.7924488488463</v>
+        <v>556.7924488488462</v>
       </c>
     </row>
     <row r="5735" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>394.050599300967</v>
+        <v>394.0505993009669</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46375,7 +46375,7 @@
         <v>5754</v>
       </c>
       <c r="B5754">
-        <v>836.801633695198</v>
+        <v>836.8016336951979</v>
       </c>
     </row>
     <row r="5755" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>529.9369135282178</v>
+        <v>529.9369135282177</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46455,7 +46455,7 @@
         <v>5764</v>
       </c>
       <c r="B5764">
-        <v>348.4887205749351</v>
+        <v>348.488720574935</v>
       </c>
     </row>
     <row r="5765" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>494.9017362114473</v>
+        <v>494.9017362114472</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>821.0906814546406</v>
+        <v>821.0906814546404</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>856.3749691542732</v>
+        <v>856.3749691542731</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>852.953364777902</v>
+        <v>852.9533647779019</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>878.4936265841224</v>
+        <v>878.4936265841222</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>84.63882804408493</v>
+        <v>84.63882804408492</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>95.56176149761646</v>
+        <v>95.56176149761644</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>849.4535104342083</v>
+        <v>849.4535104342082</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46863,7 +46863,7 @@
         <v>5815</v>
       </c>
       <c r="B5815">
-        <v>261.2993245884844</v>
+        <v>261.2993245884843</v>
       </c>
     </row>
     <row r="5816" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>651.0025081019489</v>
+        <v>651.0025081019488</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>581.9807616447382</v>
+        <v>581.9807616447381</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>888.762835778816</v>
+        <v>888.7628357788158</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>975.9664164035378</v>
+        <v>975.9664164035377</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>572.1090446997811</v>
+        <v>572.109044699781</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>743.5121398816345</v>
+        <v>743.5121398816344</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>852.2455982195349</v>
+        <v>852.2455982195348</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>276.4603583320976</v>
+        <v>276.4603583320975</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>343.1878098859896</v>
+        <v>343.1878098859895</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>333.9436342332764</v>
+        <v>333.9436342332763</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>131.678019261801</v>
+        <v>131.6780192618009</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>598.6576760287234</v>
+        <v>598.6576760287232</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47999,7 +47999,7 @@
         <v>5957</v>
       </c>
       <c r="B5957">
-        <v>52.49979338491775</v>
+        <v>52.49979338491774</v>
       </c>
     </row>
     <row r="5958" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>666.6299350964878</v>
+        <v>666.6299350964877</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>95.76925579298869</v>
+        <v>95.76925579298867</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>706.1268259058387</v>
+        <v>706.1268259058386</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>587.1461093940405</v>
+        <v>587.1461093940404</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>586.892925323741</v>
+        <v>586.8929253237409</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>406.7890492247979</v>
+        <v>406.7890492247977</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>674.4581556101712</v>
+        <v>674.458155610171</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>529.3695279973695</v>
+        <v>529.3695279973693</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>602.8688137832482</v>
+        <v>602.8688137832481</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49263,7 +49263,7 @@
         <v>6115</v>
       </c>
       <c r="B6115">
-        <v>597.3508722673324</v>
+        <v>597.3508722673323</v>
       </c>
     </row>
     <row r="6116" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>399.9645970185298</v>
+        <v>399.9645970185297</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>764.0687286754186</v>
+        <v>764.0687286754185</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>784.7941850016795</v>
+        <v>784.7941850016792</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>499.4071172887882</v>
+        <v>499.4071172887881</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>200.2501654386014</v>
+        <v>200.2501654386013</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>715.9851495043291</v>
+        <v>715.985149504329</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49655,7 +49655,7 @@
         <v>6164</v>
       </c>
       <c r="B6164">
-        <v>493.7221252808354</v>
+        <v>493.7221252808353</v>
       </c>
     </row>
     <row r="6165" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>654.2799215272988</v>
+        <v>654.2799215272987</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49839,7 +49839,7 @@
         <v>6187</v>
       </c>
       <c r="B6187">
-        <v>443.458830259702</v>
+        <v>443.4588302597019</v>
       </c>
     </row>
     <row r="6188" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>446.9616446208863</v>
+        <v>446.9616446208862</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>592.3884762123031</v>
+        <v>592.388476212303</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>747.6954358874866</v>
+        <v>747.6954358874865</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>521.6065157897884</v>
+        <v>521.6065157897883</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>499.5517478463675</v>
+        <v>499.5517478463674</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>278.3934842102117</v>
+        <v>278.3934842102116</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>664.9752560122059</v>
+        <v>664.9752560122058</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50247,7 +50247,7 @@
         <v>6238</v>
       </c>
       <c r="B6238">
-        <v>445.4684769860106</v>
+        <v>445.4684769860105</v>
       </c>
     </row>
     <row r="6239" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>265.2544940978424</v>
+        <v>265.2544940978423</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>568.9062764679783</v>
+        <v>568.9062764679782</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>579.0661701652512</v>
+        <v>579.066170165251</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>131.5466355151691</v>
+        <v>131.546635515169</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50471,7 +50471,7 @@
         <v>6266</v>
       </c>
       <c r="B6266">
-        <v>78.48196235678351</v>
+        <v>78.4819623567835</v>
       </c>
     </row>
     <row r="6267" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>771.7430868938046</v>
+        <v>771.7430868938045</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>303.142747283085</v>
+        <v>303.1427472830849</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>361.0391654274647</v>
+        <v>361.0391654274646</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>781.2169012895713</v>
+        <v>781.2169012895712</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>333.9422274922908</v>
+        <v>333.9422274922907</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>85.55268215683873</v>
+        <v>85.55268215683871</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>53.61426927718718</v>
+        <v>53.61426927718717</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>408.6625644536483</v>
+        <v>408.6625644536482</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>23.52324727399974</v>
+        <v>23.52324727399973</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>356.3567401356685</v>
+        <v>356.3567401356684</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>479.8868863019184</v>
+        <v>479.8868863019183</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51199,7 +51199,7 @@
         <v>6357</v>
       </c>
       <c r="B6357">
-        <v>241.0300333339</v>
+        <v>241.0300333338999</v>
       </c>
     </row>
     <row r="6358" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>64.90573956183536</v>
+        <v>64.90573956183535</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>16.59209669468622</v>
+        <v>16.59209669468621</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>108.3542332060038</v>
+        <v>108.3542332060037</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>480.4759297825238</v>
+        <v>480.4759297825237</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>479.6861326404353</v>
+        <v>479.6861326404352</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>653.3743906320429</v>
+        <v>653.3743906320428</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>335.4339590790771</v>
+        <v>335.433959079077</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>268.922307453793</v>
+        <v>268.9223074537929</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>64.41384913054617</v>
+        <v>64.41384913054614</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52359,7 +52359,7 @@
         <v>6502</v>
       </c>
       <c r="B6502">
-        <v>310.730620237962</v>
+        <v>310.7306202379619</v>
       </c>
     </row>
     <row r="6503" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>58.70620273130487</v>
+        <v>58.70620273130486</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>555.0038362998962</v>
+        <v>555.0038362998961</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>450.133347322591</v>
+        <v>450.1333473225909</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>69.82479041024671</v>
+        <v>69.82479041024669</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>421.9862479345819</v>
+        <v>421.9862479345818</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>253.8415458676691</v>
+        <v>253.841545867669</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>25.1924626817993</v>
+        <v>25.19246268179929</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>497.6322790786551</v>
+        <v>497.632279078655</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>750.7117230173892</v>
+        <v>750.7117230173891</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>79.95358927031759</v>
+        <v>79.95358927031758</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>537.9104972770771</v>
+        <v>537.910497277077</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>691.5078563553335</v>
+        <v>691.5078563553334</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>882.7624993332635</v>
+        <v>882.7624993332633</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>636.8653473390031</v>
+        <v>636.8653473390029</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>695.8453077275213</v>
+        <v>695.8453077275212</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>471.0803360469758</v>
+        <v>471.0803360469757</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>51.94320752184406</v>
+        <v>51.94320752184405</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>814.3594258386668</v>
+        <v>814.3594258386667</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>456.4458337314215</v>
+        <v>456.4458337314214</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>246.933685643798</v>
+        <v>246.9336856437979</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>230.8304578179924</v>
+        <v>230.8304578179923</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>352.4601848340427</v>
+        <v>352.4601848340426</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>62.39268471241819</v>
+        <v>62.39268471241818</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54727,7 +54727,7 @@
         <v>6798</v>
       </c>
       <c r="B6798">
-        <v>22.42809355530925</v>
+        <v>22.42809355530924</v>
       </c>
     </row>
     <row r="6799" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>529.5922619867521</v>
+        <v>529.592261986752</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54879,7 +54879,7 @@
         <v>6817</v>
       </c>
       <c r="B6817">
-        <v>67.80547233966232</v>
+        <v>67.8054723396623</v>
       </c>
     </row>
     <row r="6818" spans="1:2">
@@ -54887,7 +54887,7 @@
         <v>6818</v>
       </c>
       <c r="B6818">
-        <v>40.37809680839778</v>
+        <v>40.37809680839777</v>
       </c>
     </row>
     <row r="6819" spans="1:2">
@@ -54935,7 +54935,7 @@
         <v>6824</v>
       </c>
       <c r="B6824">
-        <v>125.1237492460748</v>
+        <v>125.1237492460747</v>
       </c>
     </row>
     <row r="6825" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>357.781417068809</v>
+        <v>357.7814170688089</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>606.1655698971497</v>
+        <v>606.1655698971496</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55135,7 +55135,7 @@
         <v>6849</v>
       </c>
       <c r="B6849">
-        <v>412.6258520307773</v>
+        <v>412.6258520307771</v>
       </c>
     </row>
     <row r="6850" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>78.31623068442053</v>
+        <v>78.31623068442052</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>468.2143943599066</v>
+        <v>468.2143943599065</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>400.9346621564988</v>
+        <v>400.9346621564987</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>372.3148098760252</v>
+        <v>372.3148098760251</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>45.94489326645844</v>
+        <v>45.94489326645843</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>33.22032611772898</v>
+        <v>33.22032611772897</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>353.7589584489743</v>
+        <v>353.7589584489742</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>422.663828175967</v>
+        <v>422.6638281759669</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>306.4591098494729</v>
+        <v>306.4591098494728</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>422.7104264711141</v>
+        <v>422.710426471114</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>7.619908550113097</v>
+        <v>7.619908550113096</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>75.45749854490231</v>
+        <v>75.45749854490229</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>153.0430269314701</v>
+        <v>153.04302693147</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>8.741822585343753</v>
+        <v>8.741822585343751</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>9.142784796177887</v>
+        <v>9.142784796177885</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>413.0705580248419</v>
+        <v>413.0705580248418</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>291.2471403593403</v>
+        <v>291.2471403593402</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>52.58811034241835</v>
+        <v>52.58811034241833</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56607,7 +56607,7 @@
         <v>7033</v>
       </c>
       <c r="B7033">
-        <v>43.08730410399099</v>
+        <v>43.08730410399098</v>
       </c>
     </row>
     <row r="7034" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>30.71516367138297</v>
+        <v>30.71516367138296</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56743,7 +56743,7 @@
         <v>7050</v>
       </c>
       <c r="B7050">
-        <v>345.5429756440383</v>
+        <v>345.5429756440382</v>
       </c>
     </row>
     <row r="7051" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>186.563425554974</v>
+        <v>186.5634255549739</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>30.79304436919683</v>
+        <v>30.79304436919682</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>462.6173236635522</v>
+        <v>462.6173236635521</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>596.1173362656068</v>
+        <v>596.1173362656067</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57079,7 +57079,7 @@
         <v>7092</v>
       </c>
       <c r="B7092">
-        <v>601.8196194648407</v>
+        <v>601.8196194648406</v>
       </c>
     </row>
     <row r="7093" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>581.2196561573347</v>
+        <v>581.2196561573346</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>278.8200373841418</v>
+        <v>278.8200373841417</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57335,7 +57335,7 @@
         <v>7124</v>
       </c>
       <c r="B7124">
-        <v>522.3528211897395</v>
+        <v>522.3528211897394</v>
       </c>
     </row>
     <row r="7125" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>739.2835057861016</v>
+        <v>739.2835057861015</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57519,7 +57519,7 @@
         <v>7147</v>
       </c>
       <c r="B7147">
-        <v>353.6481482892565</v>
+        <v>353.6481482892564</v>
       </c>
     </row>
     <row r="7148" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>302.5828350637225</v>
+        <v>302.5828350637224</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57583,7 +57583,7 @@
         <v>7155</v>
       </c>
       <c r="B7155">
-        <v>21.43986973578474</v>
+        <v>21.43986973578473</v>
       </c>
     </row>
     <row r="7156" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>342.6286772355899</v>
+        <v>342.6286772355898</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>7.0854788575622</v>
+        <v>7.085478857562198</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>201.497270629417</v>
+        <v>201.4972706294169</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>6.066295013513507</v>
+        <v>6.066295013513505</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>276.7752045489315</v>
+        <v>276.7752045489314</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>30.28004110028247</v>
+        <v>30.28004110028246</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>7.319151430391819</v>
+        <v>7.319151430391818</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>129.3686194771496</v>
+        <v>129.3686194771495</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>6.241431335507139</v>
+        <v>6.241431335507138</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59311,7 +59311,7 @@
         <v>7371</v>
       </c>
       <c r="B7371">
-        <v>15.29636222642552</v>
+        <v>15.29636222642551</v>
       </c>
     </row>
     <row r="7372" spans="1:2">
@@ -59455,7 +59455,7 @@
         <v>7389</v>
       </c>
       <c r="B7389">
-        <v>93.09762020455187</v>
+        <v>93.09762020455186</v>
       </c>
     </row>
     <row r="7390" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>8.374730594447712</v>
+        <v>8.37473059444771</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>9.056021115182194</v>
+        <v>9.056021115182192</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>46.65216160405986</v>
+        <v>46.65216160405985</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>40.46959358666786</v>
+        <v>40.46959358666785</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59671,7 +59671,7 @@
         <v>7416</v>
       </c>
       <c r="B7416">
-        <v>11.72614445705953</v>
+        <v>11.72614445705952</v>
       </c>
     </row>
     <row r="7417" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>4.796178470884272</v>
+        <v>4.796178470884271</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59847,7 +59847,7 @@
         <v>7438</v>
       </c>
       <c r="B7438">
-        <v>21.14055628399991</v>
+        <v>21.1405562839999</v>
       </c>
     </row>
     <row r="7439" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>6.981230851471012</v>
+        <v>6.98123085147101</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>9.520515265777334</v>
+        <v>9.520515265777332</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>7.051497270629417</v>
+        <v>7.051497270629416</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>187.4473571146805</v>
+        <v>187.4473571146804</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60447,7 +60447,7 @@
         <v>7513</v>
       </c>
       <c r="B7513">
-        <v>90.56026976602968</v>
+        <v>90.56026976602966</v>
       </c>
     </row>
     <row r="7514" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>9.048298693313468</v>
+        <v>9.048298693313466</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60663,7 +60663,7 @@
         <v>7540</v>
       </c>
       <c r="B7540">
-        <v>8.499997948502731</v>
+        <v>8.499997948502729</v>
       </c>
     </row>
     <row r="7541" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>8.077002656982037</v>
+        <v>8.077002656982035</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>54.34248633263212</v>
+        <v>54.34248633263211</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>36.16962600032473</v>
+        <v>36.16962600032472</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>6.334622650522752</v>
+        <v>6.33462265052275</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>5.81013363453221</v>
+        <v>5.810133634532209</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -61095,7 +61095,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>59.84683521377481</v>
+        <v>59.8468352137748</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -61191,7 +61191,7 @@
         <v>7606</v>
       </c>
       <c r="B7606">
-        <v>50.23463267355228</v>
+        <v>50.23463267355227</v>
       </c>
     </row>
     <row r="7607" spans="1:2">
@@ -61231,7 +61231,7 @@
         <v>7611</v>
       </c>
       <c r="B7611">
-        <v>9.282658810799788</v>
+        <v>9.282658810799784</v>
       </c>
     </row>
     <row r="7612" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>5.443283720314103</v>
+        <v>5.443283720314102</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>58.29417415805087</v>
+        <v>58.29417415805086</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>78.86321847097805</v>
+        <v>78.86321847097804</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>33.64381083788424</v>
+        <v>33.64381083788423</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>3.864767937559457</v>
+        <v>3.864767937559456</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>4.763066718794236</v>
+        <v>4.763066718794235</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>70.01979987937197</v>
+        <v>70.01979987937196</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>41.92252256793534</v>
+        <v>41.92252256793533</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>5.521254684007877</v>
+        <v>5.521254684007876</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>86.44889339306513</v>
+        <v>86.44889339306512</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>91.36548244475173</v>
+        <v>91.36548244475172</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>125.124364695256</v>
+        <v>125.1243646952559</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62087,7 +62087,7 @@
         <v>7718</v>
       </c>
       <c r="B7718">
-        <v>121.1837901236233</v>
+        <v>121.1837901236232</v>
       </c>
     </row>
     <row r="7719" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>5.582813962607653</v>
+        <v>5.582813962607652</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62215,7 +62215,7 @@
         <v>7734</v>
       </c>
       <c r="B7734">
-        <v>4.765896905814588</v>
+        <v>4.765896905814587</v>
       </c>
     </row>
     <row r="7735" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>3.741652897212368</v>
+        <v>3.741652897212367</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>6.463006815073934</v>
+        <v>6.463006815073932</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>4.658920115282425</v>
+        <v>4.658920115282424</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>4.800676525185646</v>
+        <v>4.800676525185645</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>8.355212063272866</v>
+        <v>8.355212063272864</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>5.810047764717882</v>
+        <v>5.810047764717881</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>10.18390207676</v>
+        <v>10.18390207675999</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>4.138260951625109</v>
+        <v>4.138260951625108</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62895,7 +62895,7 @@
         <v>7819</v>
       </c>
       <c r="B7819">
-        <v>4.009446558789172</v>
+        <v>4.009446558789171</v>
       </c>
     </row>
     <row r="7820" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>6.743925076975109</v>
+        <v>6.743925076975108</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63039,7 +63039,7 @@
         <v>7837</v>
       </c>
       <c r="B7837">
-        <v>84.88858640701355</v>
+        <v>84.88858640701353</v>
       </c>
     </row>
     <row r="7838" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>82.57144837465734</v>
+        <v>82.57144837465732</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>7.494123339532763</v>
+        <v>7.494123339532761</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>3.201904551451845</v>
+        <v>3.201904551451844</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>8.494165834833369</v>
+        <v>8.494165834833368</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63303,7 +63303,7 @@
         <v>7870</v>
       </c>
       <c r="B7870">
-        <v>7.617532623202671</v>
+        <v>7.617532623202669</v>
       </c>
     </row>
     <row r="7871" spans="1:2">
@@ -63319,7 +63319,7 @@
         <v>7872</v>
       </c>
       <c r="B7872">
-        <v>5.633359631574537</v>
+        <v>5.633359631574536</v>
       </c>
     </row>
     <row r="7873" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>5.580862402561207</v>
+        <v>5.580862402561206</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63415,7 +63415,7 @@
         <v>7884</v>
       </c>
       <c r="B7884">
-        <v>5.250809901815341</v>
+        <v>5.25080990181534</v>
       </c>
     </row>
     <row r="7885" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>131.9553113557408</v>
+        <v>131.9553113557407</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63975,7 +63975,7 @@
         <v>7954</v>
       </c>
       <c r="B7954">
-        <v>88.17247347853636</v>
+        <v>88.17247347853635</v>
       </c>
     </row>
     <row r="7955" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>166.4024826633828</v>
+        <v>166.4024826633827</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>11.20125422681706</v>
+        <v>11.20125422681705</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>6.933254829371111</v>
+        <v>6.93325482937111</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>8.735448290252869</v>
+        <v>8.735448290252867</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>9.110063414711346</v>
+        <v>9.110063414711345</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>8.710548974808201</v>
+        <v>8.7105489748082</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64583,7 +64583,7 @@
         <v>8030</v>
       </c>
       <c r="B8030">
-        <v>359.3556188458746</v>
+        <v>359.3556188458745</v>
       </c>
     </row>
     <row r="8031" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>88.28310779563103</v>
+        <v>88.28310779563101</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>57.04613113991153</v>
+        <v>57.04613113991152</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>4.820413101213256</v>
+        <v>4.820413101213255</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>6.760462196473653</v>
+        <v>6.760462196473652</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>326.9295357578906</v>
+        <v>326.9295357578905</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>77.49155808873137</v>
+        <v>77.49155808873135</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>331.1415527255314</v>
+        <v>331.1415527255313</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65231,7 +65231,7 @@
         <v>8111</v>
       </c>
       <c r="B8111">
-        <v>151.4504378774389</v>
+        <v>151.4504378774388</v>
       </c>
     </row>
     <row r="8112" spans="1:2">
@@ -65239,7 +65239,7 @@
         <v>8112</v>
       </c>
       <c r="B8112">
-        <v>89.94769268101973</v>
+        <v>89.94769268101972</v>
       </c>
     </row>
     <row r="8113" spans="1:2">
@@ -65263,7 +65263,7 @@
         <v>8115</v>
       </c>
       <c r="B8115">
-        <v>24.86630685358347</v>
+        <v>24.86630685358346</v>
       </c>
     </row>
     <row r="8116" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>31.42608367412611</v>
+        <v>31.4260836741261</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>480.2601415767574</v>
+        <v>480.2601415767573</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>110.4215768276936</v>
+        <v>110.4215768276935</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>26.17991572449213</v>
+        <v>26.17991572449212</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>370.7665155787773</v>
+        <v>370.7665155787772</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>79.18697404738725</v>
+        <v>79.18697404738724</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>27.8761874505809</v>
+        <v>27.87618745058089</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>41.38507717439662</v>
+        <v>41.38507717439661</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>50.37662852249409</v>
+        <v>50.37662852249407</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>7.675407119633358</v>
+        <v>7.675407119633356</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>78.29079211826473</v>
+        <v>78.29079211826472</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>14.61040308404516</v>
+        <v>14.61040308404515</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>9.474151427461109</v>
+        <v>9.474151427461107</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>5.283177839609254</v>
+        <v>5.283177839609253</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>81.25037000218632</v>
+        <v>81.2503700021863</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>41.89213110122616</v>
+        <v>41.89213110122615</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>8.30903872113177</v>
+        <v>8.309038721131769</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>5.37226557394153</v>
+        <v>5.372265573941529</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>5.203566557312094</v>
+        <v>5.203566557312092</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>7.47793409535711</v>
+        <v>7.477934095357109</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>6.478914417981434</v>
+        <v>6.478914417981432</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>5.901613121611001</v>
+        <v>5.901613121611</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>6.420382270139989</v>
+        <v>6.420382270139988</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>5.735010442121108</v>
+        <v>5.735010442121107</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>142.6751758865839</v>
+        <v>142.6751758865838</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67175,7 +67175,7 @@
         <v>8354</v>
       </c>
       <c r="B8354">
-        <v>4.201986904413709</v>
+        <v>4.201986904413708</v>
       </c>
     </row>
     <row r="8355" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>6.601381185191004</v>
+        <v>6.601381185191002</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>146.1331914087984</v>
+        <v>146.1331914087983</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>5.4296403842513</v>
+        <v>5.429640384251299</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>57.43739328550805</v>
+        <v>57.43739328550804</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>5.94974066143789</v>
+        <v>5.949740661437889</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>8.861237310756705</v>
+        <v>8.861237310756703</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>4.844609339236175</v>
+        <v>4.844609339236174</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>49.04970074516243</v>
+        <v>49.04970074516242</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>22.55016057362209</v>
+        <v>22.55016057362208</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>9.979382452430176</v>
+        <v>9.979382452430174</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>6.827174250075174</v>
+        <v>6.827174250075172</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>7.673251875215042</v>
+        <v>7.67325187521504</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>34.13743918043271</v>
+        <v>34.1374391804327</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>61.60482183918489</v>
+        <v>61.60482183918488</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>9.601610952885315</v>
+        <v>9.601610952885313</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>7.606676392717537</v>
+        <v>7.606676392717536</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>6.465594925416352</v>
+        <v>6.465594925416351</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>7.184410848083111</v>
+        <v>7.18441084808311</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>28.07293776167581</v>
+        <v>28.0729377616758</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>16.58406361751651</v>
+        <v>16.5840636175165</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68591,7 +68591,7 @@
         <v>8531</v>
       </c>
       <c r="B8531">
-        <v>8.225235057626559</v>
+        <v>8.225235057626557</v>
       </c>
     </row>
     <row r="8532" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>6.14541540182091</v>
+        <v>6.145415401820909</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68623,7 +68623,7 @@
         <v>8535</v>
       </c>
       <c r="B8535">
-        <v>8.730061644562273</v>
+        <v>8.730061644562271</v>
       </c>
     </row>
     <row r="8536" spans="1:2">
@@ -68639,7 +68639,7 @@
         <v>8537</v>
       </c>
       <c r="B8537">
-        <v>4.550663483524426</v>
+        <v>4.550663483524425</v>
       </c>
     </row>
     <row r="8538" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>5.653198196323601</v>
+        <v>5.653198196323599</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>9.117095361212987</v>
+        <v>9.117095361212986</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>6.604958410288904</v>
+        <v>6.604958410288903</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>8.675944318847224</v>
+        <v>8.675944318847222</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69519,7 +69519,7 @@
         <v>8647</v>
       </c>
       <c r="B8647">
-        <v>2.916715072233219</v>
+        <v>2.916715072233218</v>
       </c>
     </row>
     <row r="8648" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>75.99109298499302</v>
+        <v>75.991092984993</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>3.574921559536503</v>
+        <v>3.574921559536502</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>3.849283236160746</v>
+        <v>3.849283236160745</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>5.438885603236912</v>
+        <v>5.43888560323691</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70063,7 +70063,7 @@
         <v>8715</v>
       </c>
       <c r="B8715">
-        <v>4.60023703585607</v>
+        <v>4.600237035856069</v>
       </c>
     </row>
     <row r="8716" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>5.186945619496492</v>
+        <v>5.186945619496491</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70135,7 +70135,7 @@
         <v>8724</v>
       </c>
       <c r="B8724">
-        <v>30.48294004176849</v>
+        <v>30.48294004176848</v>
       </c>
     </row>
     <row r="8725" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>9.639505038184227</v>
+        <v>9.639505038184225</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>3.444053324861627</v>
+        <v>3.444053324861626</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>2.848990165122085</v>
+        <v>2.848990165122084</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>5.993774878067796</v>
+        <v>5.993774878067795</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>5.221304388856033</v>
+        <v>5.221304388856032</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
